--- a/PythonResources/Data/Consumption/Sympheny/futu_1349_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1349_hea.xlsx
@@ -607,7 +607,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>140.4009563494134</v>
+        <v>140.4009563494133</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -775,7 +775,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>137.5435137224653</v>
+        <v>137.5435137224652</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -999,7 +999,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>54.71987977053711</v>
+        <v>54.7198797705371</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>77.42380006459287</v>
+        <v>77.42380006459285</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>49.19168076826815</v>
+        <v>49.19168076826814</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>45.39289396513979</v>
+        <v>45.39289396513978</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>62.88278741037156</v>
+        <v>62.88278741037155</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>137.0977526726614</v>
+        <v>137.0977526726613</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>83.67500531923936</v>
+        <v>83.67500531923935</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1823,7 +1823,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>49.55567499828554</v>
+        <v>49.55567499828553</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>137.9681736574856</v>
+        <v>137.9681736574855</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1991,7 +1991,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>57.19369240787752</v>
+        <v>57.19369240787751</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>90.42882740519006</v>
+        <v>90.42882740519003</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>76.94228434807228</v>
+        <v>76.94228434807226</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>66.57548249750451</v>
+        <v>66.5754824975045</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>57.45071570878352</v>
+        <v>57.45071570878351</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>25.36342274149201</v>
+        <v>25.363422741492</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>19.2707689187613</v>
+        <v>19.27076891876129</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>389</v>
       </c>
       <c r="B389">
-        <v>136.1083448461407</v>
+        <v>136.1083448461406</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>67.83656717686428</v>
+        <v>67.83656717686426</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>416</v>
       </c>
       <c r="B416">
-        <v>90.66328423611914</v>
+        <v>90.66328423611913</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>418</v>
       </c>
       <c r="B418">
-        <v>67.91540328626418</v>
+        <v>67.91540328626417</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>420</v>
       </c>
       <c r="B420">
-        <v>53.76710582384907</v>
+        <v>53.76710582384906</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>425</v>
       </c>
       <c r="B425">
-        <v>45.62471315672092</v>
+        <v>45.62471315672091</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>441</v>
       </c>
       <c r="B441">
-        <v>89.59093730565728</v>
+        <v>89.59093730565726</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>446</v>
       </c>
       <c r="B446">
-        <v>56.42672549970078</v>
+        <v>56.42672549970077</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>447</v>
       </c>
       <c r="B447">
-        <v>52.29178621522786</v>
+        <v>52.29178621522785</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>505</v>
       </c>
       <c r="B505">
-        <v>42.27696268209237</v>
+        <v>42.27696268209236</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4639,7 +4639,7 @@
         <v>537</v>
       </c>
       <c r="B537">
-        <v>80.49313305249314</v>
+        <v>80.49313305249312</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4703,7 +4703,7 @@
         <v>545</v>
       </c>
       <c r="B545">
-        <v>39.49747695142817</v>
+        <v>39.49747695142816</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>80.5646423859265</v>
+        <v>80.56464238592649</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4863,7 +4863,7 @@
         <v>565</v>
       </c>
       <c r="B565">
-        <v>41.75764080158447</v>
+        <v>41.75764080158446</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>584</v>
       </c>
       <c r="B584">
-        <v>70.08647354066743</v>
+        <v>70.08647354066741</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5079,7 +5079,7 @@
         <v>592</v>
       </c>
       <c r="B592">
-        <v>16.50942428539024</v>
+        <v>16.50942428539023</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5191,7 +5191,7 @@
         <v>606</v>
       </c>
       <c r="B606">
-        <v>74.62878156887962</v>
+        <v>74.6287815688796</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>676</v>
       </c>
       <c r="B676">
-        <v>14.2920488068785</v>
+        <v>14.29204880687849</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>680</v>
       </c>
       <c r="B680">
-        <v>132.4097883382345</v>
+        <v>132.4097883382344</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>683</v>
       </c>
       <c r="B683">
-        <v>70.05071887395074</v>
+        <v>70.05071887395073</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>685</v>
       </c>
       <c r="B685">
-        <v>46.77384469931205</v>
+        <v>46.77384469931204</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>689</v>
       </c>
       <c r="B689">
-        <v>30.17899020615204</v>
+        <v>30.17899020615203</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -6159,7 +6159,7 @@
         <v>727</v>
       </c>
       <c r="B727">
-        <v>52.27918416056542</v>
+        <v>52.27918416056541</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6343,7 +6343,7 @@
         <v>750</v>
       </c>
       <c r="B750">
-        <v>79.32934795796893</v>
+        <v>79.32934795796892</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6399,7 +6399,7 @@
         <v>757</v>
       </c>
       <c r="B757">
-        <v>21.20638590070402</v>
+        <v>21.20638590070401</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6575,7 +6575,7 @@
         <v>779</v>
       </c>
       <c r="B779">
-        <v>48.75822870208802</v>
+        <v>48.75822870208801</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6623,7 +6623,7 @@
         <v>785</v>
       </c>
       <c r="B785">
-        <v>32.44325705084959</v>
+        <v>32.44325705084958</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>857</v>
       </c>
       <c r="B857">
-        <v>22.05599884178326</v>
+        <v>22.05599884178325</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7919,7 +7919,7 @@
         <v>947</v>
       </c>
       <c r="B947">
-        <v>47.72925628534804</v>
+        <v>47.72925628534803</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7927,7 +7927,7 @@
         <v>948</v>
       </c>
       <c r="B948">
-        <v>38.92422999980658</v>
+        <v>38.92422999980657</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -8439,7 +8439,7 @@
         <v>1012</v>
       </c>
       <c r="B1012">
-        <v>45.62998843541682</v>
+        <v>45.62998843541681</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>1013</v>
       </c>
       <c r="B1013">
-        <v>137.3667918861525</v>
+        <v>137.3667918861524</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8479,7 +8479,7 @@
         <v>1017</v>
       </c>
       <c r="B1017">
-        <v>136.4122595132325</v>
+        <v>136.4122595132324</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -8495,7 +8495,7 @@
         <v>1019</v>
       </c>
       <c r="B1019">
-        <v>97.81714828984258</v>
+        <v>97.81714828984256</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8511,7 +8511,7 @@
         <v>1021</v>
       </c>
       <c r="B1021">
-        <v>71.61718357559563</v>
+        <v>71.61718357559562</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8687,7 +8687,7 @@
         <v>1043</v>
       </c>
       <c r="B1043">
-        <v>46.93679219680776</v>
+        <v>46.93679219680775</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8871,7 +8871,7 @@
         <v>1066</v>
       </c>
       <c r="B1066">
-        <v>36.66728993107556</v>
+        <v>36.66728993107555</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8911,7 +8911,7 @@
         <v>1071</v>
       </c>
       <c r="B1071">
-        <v>6.271016856860002</v>
+        <v>6.271016856860001</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -9103,7 +9103,7 @@
         <v>1095</v>
       </c>
       <c r="B1095">
-        <v>9.93249987837552</v>
+        <v>9.932499878375518</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9111,7 +9111,7 @@
         <v>1096</v>
       </c>
       <c r="B1096">
-        <v>6.690577355807585</v>
+        <v>6.690577355807584</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
@@ -9223,7 +9223,7 @@
         <v>1110</v>
       </c>
       <c r="B1110">
-        <v>78.55241663447771</v>
+        <v>78.55241663447769</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9239,7 +9239,7 @@
         <v>1112</v>
       </c>
       <c r="B1112">
-        <v>52.34805585465084</v>
+        <v>52.34805585465083</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -9271,7 +9271,7 @@
         <v>1116</v>
       </c>
       <c r="B1116">
-        <v>36.24673299059653</v>
+        <v>36.24673299059652</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -9991,7 +9991,7 @@
         <v>1206</v>
       </c>
       <c r="B1206">
-        <v>137.3858415036655</v>
+        <v>137.3858415036654</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -10215,7 +10215,7 @@
         <v>1234</v>
       </c>
       <c r="B1234">
-        <v>53.99101209738634</v>
+        <v>53.99101209738633</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
@@ -10583,7 +10583,7 @@
         <v>1280</v>
       </c>
       <c r="B1280">
-        <v>64.85544857160107</v>
+        <v>64.85544857160106</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
@@ -11535,7 +11535,7 @@
         <v>1399</v>
       </c>
       <c r="B1399">
-        <v>50.2209462560468</v>
+        <v>50.22094625604679</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
@@ -11599,7 +11599,7 @@
         <v>1407</v>
       </c>
       <c r="B1407">
-        <v>6.614642649690429</v>
+        <v>6.614642649690428</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
@@ -11743,7 +11743,7 @@
         <v>1425</v>
       </c>
       <c r="B1425">
-        <v>71.42375669007914</v>
+        <v>71.42375669007913</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -11927,7 +11927,7 @@
         <v>1448</v>
       </c>
       <c r="B1448">
-        <v>94.10804122454461</v>
+        <v>94.10804122454458</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>31.68713377110332</v>
+        <v>31.68713377110331</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -12687,7 +12687,7 @@
         <v>1543</v>
       </c>
       <c r="B1543">
-        <v>68.90158733135961</v>
+        <v>68.90158733135959</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
@@ -12751,7 +12751,7 @@
         <v>1551</v>
       </c>
       <c r="B1551">
-        <v>13.10367505221061</v>
+        <v>13.1036750522106</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -12903,7 +12903,7 @@
         <v>1570</v>
       </c>
       <c r="B1570">
-        <v>37.76777168124891</v>
+        <v>37.7677716812489</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
@@ -13071,7 +13071,7 @@
         <v>1591</v>
       </c>
       <c r="B1591">
-        <v>59.3591943125462</v>
+        <v>59.35919431254619</v>
       </c>
     </row>
     <row r="1592" spans="1:2">
@@ -13079,7 +13079,7 @@
         <v>1592</v>
       </c>
       <c r="B1592">
-        <v>49.19666297592539</v>
+        <v>49.19666297592538</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
@@ -13095,7 +13095,7 @@
         <v>1594</v>
       </c>
       <c r="B1594">
-        <v>41.85699188369066</v>
+        <v>41.85699188369065</v>
       </c>
     </row>
     <row r="1595" spans="1:2">
@@ -13335,7 +13335,7 @@
         <v>1624</v>
       </c>
       <c r="B1624">
-        <v>6.631670077036654</v>
+        <v>6.631670077036653</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13847,7 +13847,7 @@
         <v>1688</v>
       </c>
       <c r="B1688">
-        <v>45.69622249015429</v>
+        <v>45.69622249015428</v>
       </c>
     </row>
     <row r="1689" spans="1:2">
@@ -13895,7 +13895,7 @@
         <v>1694</v>
       </c>
       <c r="B1694">
-        <v>8.009660793718433</v>
+        <v>8.009660793718432</v>
       </c>
     </row>
     <row r="1695" spans="1:2">
@@ -14007,7 +14007,7 @@
         <v>1708</v>
       </c>
       <c r="B1708">
-        <v>85.60898110336558</v>
+        <v>85.60898110336556</v>
       </c>
     </row>
     <row r="1709" spans="1:2">
@@ -14031,7 +14031,7 @@
         <v>1711</v>
       </c>
       <c r="B1711">
-        <v>30.88353298309391</v>
+        <v>30.8835329830939</v>
       </c>
     </row>
     <row r="1712" spans="1:2">
@@ -14039,7 +14039,7 @@
         <v>1712</v>
       </c>
       <c r="B1712">
-        <v>25.21861634128944</v>
+        <v>25.21861634128943</v>
       </c>
     </row>
     <row r="1713" spans="1:2">
@@ -14079,7 +14079,7 @@
         <v>1717</v>
       </c>
       <c r="B1717">
-        <v>8.29810130996893</v>
+        <v>8.298101309968928</v>
       </c>
     </row>
     <row r="1718" spans="1:2">
@@ -14087,7 +14087,7 @@
         <v>1718</v>
       </c>
       <c r="B1718">
-        <v>6.969580984613185</v>
+        <v>6.969580984613184</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -14223,7 +14223,7 @@
         <v>1735</v>
       </c>
       <c r="B1735">
-        <v>27.69999021142732</v>
+        <v>27.69999021142731</v>
       </c>
     </row>
     <row r="1736" spans="1:2">
@@ -14255,7 +14255,7 @@
         <v>1739</v>
       </c>
       <c r="B1739">
-        <v>7.851080054698779</v>
+        <v>7.851080054698778</v>
       </c>
     </row>
     <row r="1740" spans="1:2">
@@ -14399,7 +14399,7 @@
         <v>1757</v>
       </c>
       <c r="B1757">
-        <v>43.84635809412387</v>
+        <v>43.84635809412386</v>
       </c>
     </row>
     <row r="1758" spans="1:2">
@@ -14431,7 +14431,7 @@
         <v>1761</v>
       </c>
       <c r="B1761">
-        <v>24.86748792986928</v>
+        <v>24.86748792986927</v>
       </c>
     </row>
     <row r="1762" spans="1:2">
@@ -14463,7 +14463,7 @@
         <v>1765</v>
       </c>
       <c r="B1765">
-        <v>3.899075712558271</v>
+        <v>3.89907571255827</v>
       </c>
     </row>
     <row r="1766" spans="1:2">
@@ -14663,7 +14663,7 @@
         <v>1790</v>
       </c>
       <c r="B1790">
-        <v>5.305025406328342</v>
+        <v>5.305025406328341</v>
       </c>
     </row>
     <row r="1791" spans="1:2">
@@ -15407,7 +15407,7 @@
         <v>1883</v>
       </c>
       <c r="B1883">
-        <v>18.38850786397519</v>
+        <v>18.38850786397518</v>
       </c>
     </row>
     <row r="1884" spans="1:2">
@@ -15431,7 +15431,7 @@
         <v>1886</v>
       </c>
       <c r="B1886">
-        <v>7.060931227363927</v>
+        <v>7.060931227363926</v>
       </c>
     </row>
     <row r="1887" spans="1:2">
@@ -15743,7 +15743,7 @@
         <v>1925</v>
       </c>
       <c r="B1925">
-        <v>62.53872201098314</v>
+        <v>62.53872201098313</v>
       </c>
     </row>
     <row r="1926" spans="1:2">
@@ -15783,7 +15783,7 @@
         <v>1930</v>
       </c>
       <c r="B1930">
-        <v>25.80821665686833</v>
+        <v>25.80821665686832</v>
       </c>
     </row>
     <row r="1931" spans="1:2">
@@ -15791,7 +15791,7 @@
         <v>1931</v>
       </c>
       <c r="B1931">
-        <v>19.86458945729692</v>
+        <v>19.86458945729691</v>
       </c>
     </row>
     <row r="1932" spans="1:2">
@@ -15927,7 +15927,7 @@
         <v>1948</v>
       </c>
       <c r="B1948">
-        <v>99.87831690474782</v>
+        <v>99.87831690474781</v>
       </c>
     </row>
     <row r="1949" spans="1:2">
@@ -15951,7 +15951,7 @@
         <v>1951</v>
       </c>
       <c r="B1951">
-        <v>43.05418707662226</v>
+        <v>43.05418707662225</v>
       </c>
     </row>
     <row r="1952" spans="1:2">
@@ -16007,7 +16007,7 @@
         <v>1958</v>
       </c>
       <c r="B1958">
-        <v>8.498591207517157</v>
+        <v>8.498591207517155</v>
       </c>
     </row>
     <row r="1959" spans="1:2">
@@ -16719,7 +16719,7 @@
         <v>2047</v>
       </c>
       <c r="B2047">
-        <v>24.85787519980119</v>
+        <v>24.85787519980118</v>
       </c>
     </row>
     <row r="2048" spans="1:2">
@@ -16727,7 +16727,7 @@
         <v>2048</v>
       </c>
       <c r="B2048">
-        <v>20.77662652961103</v>
+        <v>20.77662652961102</v>
       </c>
     </row>
     <row r="2049" spans="1:2">
@@ -16911,7 +16911,7 @@
         <v>2071</v>
       </c>
       <c r="B2071">
-        <v>24.28662113124249</v>
+        <v>24.28662113124248</v>
       </c>
     </row>
     <row r="2072" spans="1:2">
@@ -16975,7 +16975,7 @@
         <v>2079</v>
       </c>
       <c r="B2079">
-        <v>1.835328072512809</v>
+        <v>1.835328072512808</v>
       </c>
     </row>
     <row r="2080" spans="1:2">
@@ -17279,7 +17279,7 @@
         <v>2117</v>
       </c>
       <c r="B2117">
-        <v>71.77485579439544</v>
+        <v>71.77485579439542</v>
       </c>
     </row>
     <row r="2118" spans="1:2">
@@ -17287,7 +17287,7 @@
         <v>2118</v>
       </c>
       <c r="B2118">
-        <v>54.17447456758834</v>
+        <v>54.17447456758833</v>
       </c>
     </row>
     <row r="2119" spans="1:2">
@@ -17343,7 +17343,7 @@
         <v>2125</v>
       </c>
       <c r="B2125">
-        <v>7.076639835036175</v>
+        <v>7.076639835036174</v>
       </c>
     </row>
     <row r="2126" spans="1:2">
@@ -17903,7 +17903,7 @@
         <v>2195</v>
       </c>
       <c r="B2195">
-        <v>17.49171048567147</v>
+        <v>17.49171048567146</v>
       </c>
     </row>
     <row r="2196" spans="1:2">
@@ -18047,7 +18047,7 @@
         <v>2213</v>
       </c>
       <c r="B2213">
-        <v>54.68178053551113</v>
+        <v>54.68178053551112</v>
       </c>
     </row>
     <row r="2214" spans="1:2">
@@ -18231,7 +18231,7 @@
         <v>2236</v>
       </c>
       <c r="B2236">
-        <v>126.6849386690238</v>
+        <v>126.6849386690237</v>
       </c>
     </row>
     <row r="2237" spans="1:2">
@@ -18247,7 +18247,7 @@
         <v>2238</v>
       </c>
       <c r="B2238">
-        <v>55.86373603443234</v>
+        <v>55.86373603443233</v>
       </c>
     </row>
     <row r="2239" spans="1:2">
@@ -18327,7 +18327,7 @@
         <v>2248</v>
       </c>
       <c r="B2248">
-        <v>7.817113121317929</v>
+        <v>7.817113121317928</v>
       </c>
     </row>
     <row r="2249" spans="1:2">
@@ -18463,7 +18463,7 @@
         <v>2265</v>
       </c>
       <c r="B2265">
-        <v>39.13846492906802</v>
+        <v>39.13846492906801</v>
       </c>
     </row>
     <row r="2266" spans="1:2">
@@ -18511,7 +18511,7 @@
         <v>2271</v>
       </c>
       <c r="B2271">
-        <v>6.781077692546208</v>
+        <v>6.781077692546207</v>
       </c>
     </row>
     <row r="2272" spans="1:2">
@@ -19191,7 +19191,7 @@
         <v>2356</v>
       </c>
       <c r="B2356">
-        <v>81.2879417093427</v>
+        <v>81.28794170934269</v>
       </c>
     </row>
     <row r="2357" spans="1:2">
@@ -19247,7 +19247,7 @@
         <v>2363</v>
       </c>
       <c r="B2363">
-        <v>7.04991175631026</v>
+        <v>7.049911756310259</v>
       </c>
     </row>
     <row r="2364" spans="1:2">
@@ -19575,7 +19575,7 @@
         <v>2404</v>
       </c>
       <c r="B2404">
-        <v>6.760328263008985</v>
+        <v>6.760328263008984</v>
       </c>
     </row>
     <row r="2405" spans="1:2">
@@ -19583,7 +19583,7 @@
         <v>2405</v>
       </c>
       <c r="B2405">
-        <v>9.82916303014353</v>
+        <v>9.829163030143528</v>
       </c>
     </row>
     <row r="2406" spans="1:2">
@@ -20015,7 +20015,7 @@
         <v>2459</v>
       </c>
       <c r="B2459">
-        <v>0.8881195448489542</v>
+        <v>0.8881195448489541</v>
       </c>
     </row>
     <row r="2460" spans="1:2">
@@ -20543,7 +20543,7 @@
         <v>2525</v>
       </c>
       <c r="B2525">
-        <v>0.4951874804741421</v>
+        <v>0.495187480474142</v>
       </c>
     </row>
     <row r="2526" spans="1:2">
@@ -21879,7 +21879,7 @@
         <v>2692</v>
       </c>
       <c r="B2692">
-        <v>51.97585563555093</v>
+        <v>51.97585563555092</v>
       </c>
     </row>
     <row r="2693" spans="1:2">
@@ -23415,7 +23415,7 @@
         <v>2884</v>
       </c>
       <c r="B2884">
-        <v>22.23524108902854</v>
+        <v>22.23524108902853</v>
       </c>
     </row>
     <row r="2885" spans="1:2">
@@ -23631,7 +23631,7 @@
         <v>2911</v>
       </c>
       <c r="B2911">
-        <v>14.72010836594726</v>
+        <v>14.72010836594725</v>
       </c>
     </row>
     <row r="2912" spans="1:2">
@@ -23799,7 +23799,7 @@
         <v>2932</v>
       </c>
       <c r="B2932">
-        <v>7.717087975822812</v>
+        <v>7.717087975822811</v>
       </c>
     </row>
     <row r="2933" spans="1:2">
@@ -54743,7 +54743,7 @@
         <v>6800</v>
       </c>
       <c r="B6800">
-        <v>4.914566861519832</v>
+        <v>4.914566861519831</v>
       </c>
     </row>
     <row r="6801" spans="1:2">
@@ -54759,7 +54759,7 @@
         <v>6802</v>
       </c>
       <c r="B6802">
-        <v>0.8472859570322689</v>
+        <v>0.8472859570322688</v>
       </c>
     </row>
     <row r="6803" spans="1:2">
@@ -55519,7 +55519,7 @@
         <v>6897</v>
       </c>
       <c r="B6897">
-        <v>28.73180541724231</v>
+        <v>28.7318054172423</v>
       </c>
     </row>
     <row r="6898" spans="1:2">
@@ -55559,7 +55559,7 @@
         <v>6902</v>
       </c>
       <c r="B6902">
-        <v>0.2671612142753731</v>
+        <v>0.267161214275373</v>
       </c>
     </row>
     <row r="6903" spans="1:2">
@@ -55671,7 +55671,7 @@
         <v>6916</v>
       </c>
       <c r="B6916">
-        <v>45.13792216150442</v>
+        <v>45.13792216150441</v>
       </c>
     </row>
     <row r="6917" spans="1:2">
@@ -56055,7 +56055,7 @@
         <v>6964</v>
       </c>
       <c r="B6964">
-        <v>3.002512791085483</v>
+        <v>3.002512791085482</v>
       </c>
     </row>
     <row r="6965" spans="1:2">
@@ -56079,7 +56079,7 @@
         <v>6967</v>
       </c>
       <c r="B6967">
-        <v>6.191946290629171</v>
+        <v>6.19194629062917</v>
       </c>
     </row>
     <row r="6968" spans="1:2">
@@ -58175,7 +58175,7 @@
         <v>7229</v>
       </c>
       <c r="B7229">
-        <v>19.74736104183238</v>
+        <v>19.74736104183237</v>
       </c>
     </row>
     <row r="7230" spans="1:2">
@@ -58559,7 +58559,7 @@
         <v>7277</v>
       </c>
       <c r="B7277">
-        <v>47.28056452515752</v>
+        <v>47.28056452515751</v>
       </c>
     </row>
     <row r="7278" spans="1:2">
@@ -58583,7 +58583,7 @@
         <v>7280</v>
       </c>
       <c r="B7280">
-        <v>32.26741442765278</v>
+        <v>32.26741442765277</v>
       </c>
     </row>
     <row r="7281" spans="1:2">
@@ -58799,7 +58799,7 @@
         <v>7307</v>
       </c>
       <c r="B7307">
-        <v>8.643251072200396</v>
+        <v>8.643251072200394</v>
       </c>
     </row>
     <row r="7308" spans="1:2">
@@ -58807,7 +58807,7 @@
         <v>7308</v>
       </c>
       <c r="B7308">
-        <v>5.493645926810784</v>
+        <v>5.493645926810783</v>
       </c>
     </row>
     <row r="7309" spans="1:2">
@@ -58823,7 +58823,7 @@
         <v>7310</v>
       </c>
       <c r="B7310">
-        <v>0.8546215251299625</v>
+        <v>0.8546215251299624</v>
       </c>
     </row>
     <row r="7311" spans="1:2">
@@ -58935,7 +58935,7 @@
         <v>7324</v>
       </c>
       <c r="B7324">
-        <v>95.64197504089807</v>
+        <v>95.64197504089806</v>
       </c>
     </row>
     <row r="7325" spans="1:2">
@@ -59535,7 +59535,7 @@
         <v>7399</v>
       </c>
       <c r="B7399">
-        <v>56.72741638536732</v>
+        <v>56.72741638536731</v>
       </c>
     </row>
     <row r="7400" spans="1:2">
@@ -59599,7 +59599,7 @@
         <v>7407</v>
       </c>
       <c r="B7407">
-        <v>1.216672694161029</v>
+        <v>1.216672694161028</v>
       </c>
     </row>
     <row r="7408" spans="1:2">
@@ -59711,7 +59711,7 @@
         <v>7421</v>
       </c>
       <c r="B7421">
-        <v>49.71862249578125</v>
+        <v>49.71862249578124</v>
       </c>
     </row>
     <row r="7422" spans="1:2">
@@ -60191,7 +60191,7 @@
         <v>7481</v>
       </c>
       <c r="B7481">
-        <v>1.964502063513184</v>
+        <v>1.964502063513183</v>
       </c>
     </row>
     <row r="7482" spans="1:2">
@@ -60303,7 +60303,7 @@
         <v>7495</v>
       </c>
       <c r="B7495">
-        <v>48.54428684386524</v>
+        <v>48.54428684386523</v>
       </c>
     </row>
     <row r="7496" spans="1:2">
@@ -60367,7 +60367,7 @@
         <v>7503</v>
       </c>
       <c r="B7503">
-        <v>25.25167475445044</v>
+        <v>25.25167475445043</v>
       </c>
     </row>
     <row r="7504" spans="1:2">
@@ -61503,7 +61503,7 @@
         <v>7645</v>
       </c>
       <c r="B7645">
-        <v>21.5419229328674</v>
+        <v>21.54192293286739</v>
       </c>
     </row>
     <row r="7646" spans="1:2">
@@ -61519,7 +61519,7 @@
         <v>7647</v>
       </c>
       <c r="B7647">
-        <v>8.899424467094278</v>
+        <v>8.899424467094276</v>
       </c>
     </row>
     <row r="7648" spans="1:2">
@@ -61647,7 +61647,7 @@
         <v>7663</v>
       </c>
       <c r="B7663">
-        <v>52.24606713319669</v>
+        <v>52.24606713319668</v>
       </c>
     </row>
     <row r="7664" spans="1:2">
@@ -61663,7 +61663,7 @@
         <v>7665</v>
       </c>
       <c r="B7665">
-        <v>40.45552617681211</v>
+        <v>40.4555261768121</v>
       </c>
     </row>
     <row r="7666" spans="1:2">
@@ -61671,7 +61671,7 @@
         <v>7666</v>
       </c>
       <c r="B7666">
-        <v>33.89014876872065</v>
+        <v>33.89014876872064</v>
       </c>
     </row>
     <row r="7667" spans="1:2">
@@ -61711,7 +61711,7 @@
         <v>7671</v>
       </c>
       <c r="B7671">
-        <v>9.603058723816302</v>
+        <v>9.6030587238163</v>
       </c>
     </row>
     <row r="7672" spans="1:2">
@@ -62239,7 +62239,7 @@
         <v>7737</v>
       </c>
       <c r="B7737">
-        <v>49.76199700950313</v>
+        <v>49.76199700950312</v>
       </c>
     </row>
     <row r="7738" spans="1:2">
@@ -62303,7 +62303,7 @@
         <v>7745</v>
       </c>
       <c r="B7745">
-        <v>6.548027602602706</v>
+        <v>6.548027602602705</v>
       </c>
     </row>
     <row r="7746" spans="1:2">
@@ -62615,7 +62615,7 @@
         <v>7784</v>
       </c>
       <c r="B7784">
-        <v>39.60210331223027</v>
+        <v>39.60210331223026</v>
       </c>
     </row>
     <row r="7785" spans="1:2">
@@ -62655,7 +62655,7 @@
         <v>7789</v>
       </c>
       <c r="B7789">
-        <v>8.735656370690318</v>
+        <v>8.735656370690316</v>
       </c>
     </row>
     <row r="7790" spans="1:2">
@@ -62671,7 +62671,7 @@
         <v>7791</v>
       </c>
       <c r="B7791">
-        <v>1.495453588977247</v>
+        <v>1.495453588977246</v>
       </c>
     </row>
     <row r="7792" spans="1:2">
@@ -63591,7 +63591,7 @@
         <v>7906</v>
       </c>
       <c r="B7906">
-        <v>26.64258990393718</v>
+        <v>26.64258990393717</v>
       </c>
     </row>
     <row r="7907" spans="1:2">
@@ -63767,7 +63767,7 @@
         <v>7928</v>
       </c>
       <c r="B7928">
-        <v>35.32971371062518</v>
+        <v>35.32971371062517</v>
       </c>
     </row>
     <row r="7929" spans="1:2">
@@ -63959,7 +63959,7 @@
         <v>7952</v>
       </c>
       <c r="B7952">
-        <v>5.764003959975875</v>
+        <v>5.764003959975874</v>
       </c>
     </row>
     <row r="7953" spans="1:2">
@@ -64983,7 +64983,7 @@
         <v>8080</v>
       </c>
       <c r="B8080">
-        <v>13.5155277828414</v>
+        <v>13.51552778284139</v>
       </c>
     </row>
     <row r="8081" spans="1:2">
@@ -65119,7 +65119,7 @@
         <v>8097</v>
       </c>
       <c r="B8097">
-        <v>44.06791979935185</v>
+        <v>44.06791979935184</v>
       </c>
     </row>
     <row r="8098" spans="1:2">
@@ -65159,7 +65159,7 @@
         <v>8102</v>
       </c>
       <c r="B8102">
-        <v>13.21044083159494</v>
+        <v>13.21044083159493</v>
       </c>
     </row>
     <row r="8103" spans="1:2">
@@ -65167,7 +65167,7 @@
         <v>8103</v>
       </c>
       <c r="B8103">
-        <v>7.371938213591346</v>
+        <v>7.371938213591345</v>
       </c>
     </row>
     <row r="8104" spans="1:2">
@@ -65175,7 +65175,7 @@
         <v>8104</v>
       </c>
       <c r="B8104">
-        <v>5.863999798367126</v>
+        <v>5.863999798367125</v>
       </c>
     </row>
     <row r="8105" spans="1:2">
@@ -65295,7 +65295,7 @@
         <v>8119</v>
       </c>
       <c r="B8119">
-        <v>50.57732063905899</v>
+        <v>50.57732063905898</v>
       </c>
     </row>
     <row r="8120" spans="1:2">
@@ -65335,7 +65335,7 @@
         <v>8124</v>
       </c>
       <c r="B8124">
-        <v>23.80759651855052</v>
+        <v>23.80759651855051</v>
       </c>
     </row>
     <row r="8125" spans="1:2">
@@ -65479,7 +65479,7 @@
         <v>8142</v>
       </c>
       <c r="B8142">
-        <v>85.84812707091324</v>
+        <v>85.84812707091322</v>
       </c>
     </row>
     <row r="8143" spans="1:2">
@@ -65543,7 +65543,7 @@
         <v>8150</v>
       </c>
       <c r="B8150">
-        <v>22.45818022813822</v>
+        <v>22.45818022813821</v>
       </c>
     </row>
     <row r="8151" spans="1:2">
@@ -66319,7 +66319,7 @@
         <v>8247</v>
       </c>
       <c r="B8247">
-        <v>43.31414108791487</v>
+        <v>43.31414108791486</v>
       </c>
     </row>
     <row r="8248" spans="1:2">
@@ -66479,7 +66479,7 @@
         <v>8267</v>
       </c>
       <c r="B8267">
-        <v>45.0160046094213</v>
+        <v>45.01600460942129</v>
       </c>
     </row>
     <row r="8268" spans="1:2">
@@ -66487,7 +66487,7 @@
         <v>8268</v>
       </c>
       <c r="B8268">
-        <v>38.00721071983523</v>
+        <v>38.00721071983522</v>
       </c>
     </row>
     <row r="8269" spans="1:2">
@@ -66679,7 +66679,7 @@
         <v>8292</v>
       </c>
       <c r="B8292">
-        <v>47.76471788102606</v>
+        <v>47.76471788102605</v>
       </c>
     </row>
     <row r="8293" spans="1:2">
@@ -66831,7 +66831,7 @@
         <v>8311</v>
       </c>
       <c r="B8311">
-        <v>99.02987624782322</v>
+        <v>99.0298762478232</v>
       </c>
     </row>
     <row r="8312" spans="1:2">
@@ -66839,7 +66839,7 @@
         <v>8312</v>
       </c>
       <c r="B8312">
-        <v>78.55183049240038</v>
+        <v>78.55183049240037</v>
       </c>
     </row>
     <row r="8313" spans="1:2">
@@ -66847,7 +66847,7 @@
         <v>8313</v>
       </c>
       <c r="B8313">
-        <v>69.86667026167142</v>
+        <v>69.8666702616714</v>
       </c>
     </row>
     <row r="8314" spans="1:2">
@@ -66895,7 +66895,7 @@
         <v>8319</v>
       </c>
       <c r="B8319">
-        <v>38.6109370594776</v>
+        <v>38.61093705947759</v>
       </c>
     </row>
     <row r="8320" spans="1:2">
@@ -66903,7 +66903,7 @@
         <v>8320</v>
       </c>
       <c r="B8320">
-        <v>38.4274745892756</v>
+        <v>38.42747458927559</v>
       </c>
     </row>
     <row r="8321" spans="1:2">
@@ -67063,7 +67063,7 @@
         <v>8340</v>
       </c>
       <c r="B8340">
-        <v>43.77279726341988</v>
+        <v>43.77279726341987</v>
       </c>
     </row>
     <row r="8341" spans="1:2">
@@ -67071,7 +67071,7 @@
         <v>8341</v>
       </c>
       <c r="B8341">
-        <v>36.09668061880192</v>
+        <v>36.09668061880191</v>
       </c>
     </row>
     <row r="8342" spans="1:2">
@@ -67607,7 +67607,7 @@
         <v>8408</v>
       </c>
       <c r="B8408">
-        <v>88.05436584995584</v>
+        <v>88.05436584995583</v>
       </c>
     </row>
     <row r="8409" spans="1:2">
@@ -67791,7 +67791,7 @@
         <v>8431</v>
       </c>
       <c r="B8431">
-        <v>63.702800176546</v>
+        <v>63.70280017654599</v>
       </c>
     </row>
     <row r="8432" spans="1:2">
@@ -68055,7 +68055,7 @@
         <v>8464</v>
       </c>
       <c r="B8464">
-        <v>17.12967983161311</v>
+        <v>17.1296798316131</v>
       </c>
     </row>
     <row r="8465" spans="1:2">
@@ -68063,7 +68063,7 @@
         <v>8465</v>
       </c>
       <c r="B8465">
-        <v>21.62034874281317</v>
+        <v>21.62034874281316</v>
       </c>
     </row>
     <row r="8466" spans="1:2">
@@ -68367,7 +68367,7 @@
         <v>8503</v>
       </c>
       <c r="B8503">
-        <v>89.02325870377025</v>
+        <v>89.02325870377024</v>
       </c>
     </row>
     <row r="8504" spans="1:2">
@@ -68399,7 +68399,7 @@
         <v>8507</v>
       </c>
       <c r="B8507">
-        <v>55.3189169735609</v>
+        <v>55.31891697356089</v>
       </c>
     </row>
     <row r="8508" spans="1:2">
@@ -68975,7 +68975,7 @@
         <v>8579</v>
       </c>
       <c r="B8579">
-        <v>98.89213285965241</v>
+        <v>98.89213285965238</v>
       </c>
     </row>
     <row r="8580" spans="1:2">
@@ -68999,7 +68999,7 @@
         <v>8582</v>
       </c>
       <c r="B8582">
-        <v>67.52854951523121</v>
+        <v>67.52854951523119</v>
       </c>
     </row>
     <row r="8583" spans="1:2">
@@ -69015,7 +69015,7 @@
         <v>8584</v>
       </c>
       <c r="B8584">
-        <v>55.87926879948139</v>
+        <v>55.87926879948138</v>
       </c>
     </row>
     <row r="8585" spans="1:2">
@@ -69279,7 +69279,7 @@
         <v>8617</v>
       </c>
       <c r="B8617">
-        <v>0.6247131567209103</v>
+        <v>0.6247131567209102</v>
       </c>
     </row>
     <row r="8618" spans="1:2">
@@ -69519,7 +69519,7 @@
         <v>8647</v>
       </c>
       <c r="B8647">
-        <v>89.97779107669025</v>
+        <v>89.97779107669024</v>
       </c>
     </row>
     <row r="8648" spans="1:2">
@@ -69527,7 +69527,7 @@
         <v>8648</v>
       </c>
       <c r="B8648">
-        <v>71.49731752078314</v>
+        <v>71.49731752078313</v>
       </c>
     </row>
     <row r="8649" spans="1:2">
@@ -70287,7 +70287,7 @@
         <v>8743</v>
       </c>
       <c r="B8743">
-        <v>87.37209647195223</v>
+        <v>87.37209647195222</v>
       </c>
     </row>
     <row r="8744" spans="1:2">
